--- a/excel/mag_comp1_eccentricity.xlsx
+++ b/excel/mag_comp1_eccentricity.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Current Science</t>
+          <t>Journal of Environmental Protection and Ecology</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -401,7 +401,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Journal of Environmental Protection and Ecology</t>
+          <t>Current Science</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/excel/mag_comp1_eccentricity.xlsx
+++ b/excel/mag_comp1_eccentricity.xlsx
@@ -381,7 +381,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Journal of Environmental Protection and Ecology</t>
+          <t>Current Science</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -401,7 +401,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Current Science</t>
+          <t>Journal of Environmental Protection and Ecology</t>
         </is>
       </c>
       <c r="B4" t="n">
